--- a/data/trans_orig/P17A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P17A-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>126974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108765</v>
+        <v>107410</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148183</v>
+        <v>147842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1829571240590993</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1567187184592537</v>
+        <v>0.1547665549518497</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2135158523959525</v>
+        <v>0.2130248323164534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>219</v>
@@ -765,19 +765,19 @@
         <v>214101</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>190042</v>
+        <v>190654</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>239139</v>
+        <v>239835</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3110350931956555</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2760834003991936</v>
+        <v>0.2769719115048394</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3474089153013646</v>
+        <v>0.3484191618579434</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>349</v>
@@ -786,19 +786,19 @@
         <v>341076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306910</v>
+        <v>308600</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>374908</v>
+        <v>373654</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2467338541704593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2220182156716895</v>
+        <v>0.2232408000061139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2712078619933852</v>
+        <v>0.2703011051051941</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>567038</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>545829</v>
+        <v>546170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>585247</v>
+        <v>586602</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8170428759409006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7864841476040478</v>
+        <v>0.7869751676835468</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8432812815407463</v>
+        <v>0.8452334450481506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>477</v>
@@ -836,19 +836,19 @@
         <v>474250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>449212</v>
+        <v>448516</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>498309</v>
+        <v>497697</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6889649068043445</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6525910846986354</v>
+        <v>0.6515808381420566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7239165996008063</v>
+        <v>0.7230280884951606</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1030</v>
@@ -857,19 +857,19 @@
         <v>1041287</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1007455</v>
+        <v>1008709</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1075453</v>
+        <v>1073763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7532661458295407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7287921380066149</v>
+        <v>0.7296988948948061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7779817843283109</v>
+        <v>0.7767591999938862</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>192352</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166602</v>
+        <v>168864</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>219177</v>
+        <v>219066</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1999918128033007</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1732194343525487</v>
+        <v>0.1755712100103877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2278825811364082</v>
+        <v>0.2277665977870182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>287</v>
@@ -982,19 +982,19 @@
         <v>307419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>277745</v>
+        <v>278135</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>337923</v>
+        <v>340305</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3177809887208967</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2871064085666682</v>
+        <v>0.2875097492628866</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3493131777673432</v>
+        <v>0.3517753036673116</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>470</v>
@@ -1003,19 +1003,19 @@
         <v>499771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>461181</v>
+        <v>460430</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>537719</v>
+        <v>539621</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2590571413249721</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.239054076592869</v>
+        <v>0.2386645162592777</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.278727472758928</v>
+        <v>0.2797134977996856</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>769448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>742623</v>
+        <v>742734</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>795198</v>
+        <v>792936</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8000081871966993</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7721174188635919</v>
+        <v>0.7722334022129819</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8267805656474513</v>
+        <v>0.8244287899896122</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>620</v>
@@ -1053,19 +1053,19 @@
         <v>659974</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>629470</v>
+        <v>627088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>689648</v>
+        <v>689258</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6822190112791033</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6506868222326568</v>
+        <v>0.648224696332689</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7128935914333319</v>
+        <v>0.7124902507371136</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1333</v>
@@ -1074,19 +1074,19 @@
         <v>1429422</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1391474</v>
+        <v>1389572</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1468012</v>
+        <v>1468763</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7409428586750278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.721272527241072</v>
+        <v>0.7202865022003143</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.760945923407131</v>
+        <v>0.7613354837407224</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>144649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124596</v>
+        <v>122937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168269</v>
+        <v>167551</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2134804530981473</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1838845090834909</v>
+        <v>0.1814362884248676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2483396021068119</v>
+        <v>0.2472804149607802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>203</v>
@@ -1199,19 +1199,19 @@
         <v>199152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>174259</v>
+        <v>177270</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221840</v>
+        <v>221565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.29122612013348</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2548244648933806</v>
+        <v>0.2592272733879611</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3244033372465517</v>
+        <v>0.3240013032106138</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>339</v>
@@ -1220,19 +1220,19 @@
         <v>343801</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>313604</v>
+        <v>309814</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>378482</v>
+        <v>374485</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.252532206076072</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2303514690236471</v>
+        <v>0.2275671916845852</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2780061984496175</v>
+        <v>0.2750704534622186</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>532926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>509306</v>
+        <v>510024</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>552979</v>
+        <v>554638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7865195469018527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7516603978931882</v>
+        <v>0.7527195850392199</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8161154909165095</v>
+        <v>0.8185637115751323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>493</v>
@@ -1270,19 +1270,19 @@
         <v>484689</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>462001</v>
+        <v>462276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>509582</v>
+        <v>506571</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.70877387986652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6755966627534482</v>
+        <v>0.6759986967893861</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7451755351066192</v>
+        <v>0.7407727266120387</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>997</v>
@@ -1291,19 +1291,19 @@
         <v>1017615</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>982934</v>
+        <v>986931</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1047812</v>
+        <v>1051602</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.747467793923928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7219938015503832</v>
+        <v>0.7249295465377814</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7696485309763529</v>
+        <v>0.7724328083154148</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>195326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>168784</v>
+        <v>174081</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>218639</v>
+        <v>220138</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2076861838862482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1794639792889079</v>
+        <v>0.1850962828929049</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.232474733829825</v>
+        <v>0.2340681684208894</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>313</v>
@@ -1416,19 +1416,19 @@
         <v>327697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>299830</v>
+        <v>295211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>361471</v>
+        <v>357562</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3158221054425178</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2889651980604285</v>
+        <v>0.2845134289411218</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.348372136833873</v>
+        <v>0.3446050103858757</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>525</v>
@@ -1437,19 +1437,19 @@
         <v>523023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>487800</v>
+        <v>483756</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>566187</v>
+        <v>563355</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2644085778780683</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2466019331271125</v>
+        <v>0.2445572958003203</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2862297666420809</v>
+        <v>0.2847979641479192</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>745161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>721848</v>
+        <v>720349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>771703</v>
+        <v>766406</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7923138161137518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.767525266170175</v>
+        <v>0.7659318315791107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8205360207110921</v>
+        <v>0.8149037171070952</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>683</v>
@@ -1487,19 +1487,19 @@
         <v>709903</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>676129</v>
+        <v>680038</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>737770</v>
+        <v>742389</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6841778945574822</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6516278631661274</v>
+        <v>0.6553949896141243</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7110348019395715</v>
+        <v>0.7154865710588781</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1463</v>
@@ -1508,19 +1508,19 @@
         <v>1455064</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1411900</v>
+        <v>1414732</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1490287</v>
+        <v>1494331</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7355914221219316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7137702333579192</v>
+        <v>0.715202035852081</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7533980668728877</v>
+        <v>0.7554427041996796</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>659302</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2013827458166282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1022</v>
@@ -1633,19 +1633,19 @@
         <v>1048370</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3104271149634787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1683</v>
@@ -1654,19 +1654,19 @@
         <v>1707672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2567518236966544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2614572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2568287</v>
+        <v>2565433</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2655162</v>
+        <v>2659073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7986172541833718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7844795589924289</v>
+        <v>0.7836077546472908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.811015403129725</v>
+        <v>0.8122100330797343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2273</v>
@@ -1704,19 +1704,19 @@
         <v>2328815</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2269734</v>
+        <v>2275106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2379460</v>
+        <v>2384371</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6895728850365213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6720786482235538</v>
+        <v>0.6736693037173868</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7045691584982411</v>
+        <v>0.7060232087735783</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4823</v>
@@ -1725,19 +1725,19 @@
         <v>4943387</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4868543</v>
+        <v>4869795</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5012076</v>
+        <v>5009639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7432481763033456</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7319950948921027</v>
+        <v>0.7321834738640252</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7535756986002703</v>
+        <v>0.7532092738657721</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>178639</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154929</v>
+        <v>155289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205696</v>
+        <v>203117</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2542964134711992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2205447545361841</v>
+        <v>0.2210569786174462</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2928125199669642</v>
+        <v>0.2891407908493299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>222</v>
@@ -2090,19 +2090,19 @@
         <v>237130</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>210423</v>
+        <v>212547</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>260240</v>
+        <v>265162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3419872233266039</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.303470657798358</v>
+        <v>0.3065344863744357</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.375316316036234</v>
+        <v>0.3824146740233949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>389</v>
@@ -2111,19 +2111,19 @@
         <v>415769</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>381323</v>
+        <v>383554</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>453557</v>
+        <v>453039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2978561027669151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2731790409966859</v>
+        <v>0.2747770838328977</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.324927476940768</v>
+        <v>0.3245563377699083</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>523845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>496788</v>
+        <v>499367</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>547555</v>
+        <v>547195</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7457035865288009</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7071874800330361</v>
+        <v>0.71085920915067</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7794552454638159</v>
+        <v>0.7789430213825539</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>425</v>
@@ -2161,19 +2161,19 @@
         <v>456258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>433148</v>
+        <v>428226</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>482965</v>
+        <v>480841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6580127766733961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6246836839637661</v>
+        <v>0.6175853259766051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6965293422016421</v>
+        <v>0.6934655136255642</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>931</v>
@@ -2182,19 +2182,19 @@
         <v>980103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>942315</v>
+        <v>942833</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1014549</v>
+        <v>1012318</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7021438972330849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6750725230592322</v>
+        <v>0.6754436622300918</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7268209590033141</v>
+        <v>0.7252229161671022</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>237620</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>213312</v>
+        <v>210630</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>268498</v>
+        <v>264477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2336955469094817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2097892542977194</v>
+        <v>0.2071515137603318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2640637918565796</v>
+        <v>0.2601086182874263</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>329</v>
@@ -2307,19 +2307,19 @@
         <v>356014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>326242</v>
+        <v>326812</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>386398</v>
+        <v>385899</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3449133819508493</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.316069715599653</v>
+        <v>0.3166216250604407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3743500750181433</v>
+        <v>0.3738667109383914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>546</v>
@@ -2328,19 +2328,19 @@
         <v>593634</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>551039</v>
+        <v>551596</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>636908</v>
+        <v>641112</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2897221808005824</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2689338388488074</v>
+        <v>0.2692055964879135</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3108420869050815</v>
+        <v>0.3128937181995347</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>779173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>748295</v>
+        <v>752316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>803481</v>
+        <v>806163</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7663044530905183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7359362081434204</v>
+        <v>0.7398913817125737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7902107457022806</v>
+        <v>0.7928484862396682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>611</v>
@@ -2378,19 +2378,19 @@
         <v>676170</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>645786</v>
+        <v>646285</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>705942</v>
+        <v>705372</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6550866180491507</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6256499249818569</v>
+        <v>0.6261332890616085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6839302844003472</v>
+        <v>0.6833783749395593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1329</v>
@@ -2399,19 +2399,19 @@
         <v>1455343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1412069</v>
+        <v>1407865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1497938</v>
+        <v>1497381</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7102778191994176</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6891579130949185</v>
+        <v>0.6871062818004651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7310661611511926</v>
+        <v>0.7307944035120865</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>176411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152161</v>
+        <v>153257</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>201538</v>
+        <v>203232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2346929027755031</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2024305824860206</v>
+        <v>0.2038896705418178</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2681204127913103</v>
+        <v>0.2703753190954351</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>210</v>
@@ -2524,19 +2524,19 @@
         <v>231534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207613</v>
+        <v>205996</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263144</v>
+        <v>261230</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2983336695564268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2675112243411945</v>
+        <v>0.2654271527048271</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3390625289841231</v>
+        <v>0.3365972984556426</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>365</v>
@@ -2545,19 +2545,19 @@
         <v>407946</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>372756</v>
+        <v>369596</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>443944</v>
+        <v>449166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.267022001410215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2439882963321213</v>
+        <v>0.2419204654762116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2905846740108404</v>
+        <v>0.294003310962406</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>575257</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>550130</v>
+        <v>548436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>599507</v>
+        <v>598411</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.765307097224497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7318795872086898</v>
+        <v>0.729624680904565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7975694175139795</v>
+        <v>0.7961103294581823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>494</v>
@@ -2595,19 +2595,19 @@
         <v>544558</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>512948</v>
+        <v>514862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>568479</v>
+        <v>570096</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7016663304435732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6609374710158767</v>
+        <v>0.6634027015443573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7324887756588054</v>
+        <v>0.7345728472951729</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1023</v>
@@ -2616,19 +2616,19 @@
         <v>1119814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1083816</v>
+        <v>1078594</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1155004</v>
+        <v>1158164</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.732977998589785</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7094153259891595</v>
+        <v>0.7059966890375939</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7560117036678786</v>
+        <v>0.7580795345237883</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>187470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162881</v>
+        <v>163153</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>213052</v>
+        <v>212137</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1990298424132683</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1729245313983428</v>
+        <v>0.1732137860243995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2261890351380865</v>
+        <v>0.2252183586230029</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>315</v>
@@ -2741,19 +2741,19 @@
         <v>330893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>301900</v>
+        <v>300164</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>361115</v>
+        <v>364519</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3164700094305032</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2887407446850789</v>
+        <v>0.2870803387894693</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3453750330659605</v>
+        <v>0.3486303731538408</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>493</v>
@@ -2762,19 +2762,19 @@
         <v>518363</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>478338</v>
+        <v>481149</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>554493</v>
+        <v>559992</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2608123939790611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2406740796624072</v>
+        <v>0.2420885701865974</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2789913229583705</v>
+        <v>0.2817580940104892</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>754449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>728867</v>
+        <v>729782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>779038</v>
+        <v>778766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8009701575867316</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7738109648619136</v>
+        <v>0.7747816413769971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8270754686016573</v>
+        <v>0.8267862139756005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>682</v>
@@ -2812,19 +2812,19 @@
         <v>714681</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>684459</v>
+        <v>681055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>743674</v>
+        <v>745410</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6835299905694968</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6546249669340394</v>
+        <v>0.6513696268461586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7112592553149211</v>
+        <v>0.7129196612105306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1409</v>
@@ -2833,19 +2833,19 @@
         <v>1469129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1432999</v>
+        <v>1427500</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1509154</v>
+        <v>1506343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7391876060209389</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7210086770416292</v>
+        <v>0.7182419059895108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7593259203375925</v>
+        <v>0.7579114298134025</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>780140</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>727173</v>
+        <v>727919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>830780</v>
+        <v>834289</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2285881624572763</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.213068332819452</v>
+        <v>0.2132870130301244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2434262325727269</v>
+        <v>0.2444543294601124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1076</v>
@@ -2958,19 +2958,19 @@
         <v>1155571</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1094954</v>
+        <v>1100995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1214514</v>
+        <v>1211224</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3257664434573518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.308677831206502</v>
+        <v>0.3103808066211563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.342382894504774</v>
+        <v>0.3414555016624367</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1793</v>
@@ -2979,19 +2979,19 @@
         <v>1935711</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1850055</v>
+        <v>1859204</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2011947</v>
+        <v>2019219</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2781153849921248</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.265808614686605</v>
+        <v>0.2671231772808317</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2890686825286609</v>
+        <v>0.2901135118398164</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2632723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2582083</v>
+        <v>2578574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2685690</v>
+        <v>2684944</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7714118375427237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7565737674272731</v>
+        <v>0.7555456705398877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7869316671805479</v>
+        <v>0.7867129869698759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2212</v>
@@ -3029,19 +3029,19 @@
         <v>2391667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2332724</v>
+        <v>2336014</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2452284</v>
+        <v>2446243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6742335565426482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6576171054952259</v>
+        <v>0.6585444983375633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6913221687934981</v>
+        <v>0.6896191933788437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4692</v>
@@ -3050,19 +3050,19 @@
         <v>5024390</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4948154</v>
+        <v>4940882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5110046</v>
+        <v>5100897</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7218846150078752</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7109313174713394</v>
+        <v>0.7098864881601837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.734191385313395</v>
+        <v>0.7328768227191683</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>193199</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170373</v>
+        <v>170853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>216699</v>
+        <v>217950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2863060495273463</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.252479229906949</v>
+        <v>0.2531904979350877</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3211312238073314</v>
+        <v>0.3229844641967445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>240</v>
@@ -3415,19 +3415,19 @@
         <v>247978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222751</v>
+        <v>224424</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>274421</v>
+        <v>275825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3685541185709063</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3310608155847877</v>
+        <v>0.3335478438198379</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4078550737101848</v>
+        <v>0.4099421800884924</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>427</v>
@@ -3436,19 +3436,19 @@
         <v>441177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>411238</v>
+        <v>405358</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>478973</v>
+        <v>475749</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3273702428661854</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.305154164607168</v>
+        <v>0.3007910739300229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3554165889104779</v>
+        <v>0.3530241852464615</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>481601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>458101</v>
+        <v>456850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>504427</v>
+        <v>503947</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7136939504726537</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6788687761926685</v>
+        <v>0.6770155358032554</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7475207700930508</v>
+        <v>0.7468095020649123</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>426</v>
@@ -3486,19 +3486,19 @@
         <v>424861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>398418</v>
+        <v>397014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>450088</v>
+        <v>448415</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6314458814290936</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5921449262898152</v>
+        <v>0.5900578199115075</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6689391844152124</v>
+        <v>0.6664521561801623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>891</v>
@@ -3507,19 +3507,19 @@
         <v>906462</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>868666</v>
+        <v>871890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>936401</v>
+        <v>942281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6726297571338146</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6445834110895221</v>
+        <v>0.6469758147535384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6948458353928321</v>
+        <v>0.6992089260699771</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>267693</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>237613</v>
+        <v>238430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>296609</v>
+        <v>298185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2618198061973905</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2323998761937219</v>
+        <v>0.233199043424715</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2901014867630877</v>
+        <v>0.2916433765161182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>326</v>
@@ -3632,19 +3632,19 @@
         <v>354824</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>324030</v>
+        <v>325073</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>387263</v>
+        <v>389957</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3402239309807381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3106974831096321</v>
+        <v>0.3116967278806664</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3713284342701982</v>
+        <v>0.3739113205092242</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>574</v>
@@ -3653,19 +3653,19 @@
         <v>622517</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>578665</v>
+        <v>581338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>664223</v>
+        <v>666590</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3014106353239574</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2801786726776138</v>
+        <v>0.281472587105033</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3216038997997577</v>
+        <v>0.3227502951359182</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>754738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>725822</v>
+        <v>724246</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>784818</v>
+        <v>784001</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7381801938026095</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7098985132369123</v>
+        <v>0.7083566234838818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7676001238062781</v>
+        <v>0.766800956575285</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>651</v>
@@ -3703,19 +3703,19 @@
         <v>688089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>655650</v>
+        <v>652956</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>718883</v>
+        <v>717840</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6597760690192619</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6286715657298018</v>
+        <v>0.6260886794907757</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6893025168903678</v>
+        <v>0.6883032721193334</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1354</v>
@@ -3724,19 +3724,19 @@
         <v>1442827</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1401121</v>
+        <v>1398754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1486679</v>
+        <v>1484006</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6985893646760426</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6783961002002422</v>
+        <v>0.6772497048640819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7198213273223862</v>
+        <v>0.718527412894967</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>174766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149514</v>
+        <v>153303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199458</v>
+        <v>199696</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2300910098920229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.196844358804273</v>
+        <v>0.2018333931544627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2625997606599663</v>
+        <v>0.2629122792057648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -3849,19 +3849,19 @@
         <v>250988</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226467</v>
+        <v>223542</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>279676</v>
+        <v>278807</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3197249673905298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2884887393473167</v>
+        <v>0.2847625333885576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3562706238369664</v>
+        <v>0.3551635887858723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>391</v>
@@ -3870,19 +3870,19 @@
         <v>425754</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>393361</v>
+        <v>394087</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464471</v>
+        <v>465856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2756466952234975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2546745061139416</v>
+        <v>0.25514458416523</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3007138563944571</v>
+        <v>0.3016100592227743</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>584786</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>560094</v>
+        <v>559856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>610038</v>
+        <v>606249</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7699089901079771</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7374002393400336</v>
+        <v>0.7370877207942348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8031556411957268</v>
+        <v>0.7981666068455373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>505</v>
@@ -3920,19 +3920,19 @@
         <v>534023</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>505335</v>
+        <v>506204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>558544</v>
+        <v>561469</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6802750326094702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6437293761630332</v>
+        <v>0.6448364112141277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7115112606526833</v>
+        <v>0.7152374666114425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1041</v>
@@ -3941,19 +3941,19 @@
         <v>1118809</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1080092</v>
+        <v>1078707</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1151202</v>
+        <v>1150476</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7243533047765025</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6992861436055426</v>
+        <v>0.6983899407772256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7453254938860584</v>
+        <v>0.7448554158347699</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>219944</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>195211</v>
+        <v>194541</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>244870</v>
+        <v>247270</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2345898008833643</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2082099627324953</v>
+        <v>0.2074953524080477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2611763357398613</v>
+        <v>0.2637359866530091</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>280</v>
@@ -4066,19 +4066,19 @@
         <v>310530</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>278344</v>
+        <v>280449</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>338597</v>
+        <v>342407</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2975058979734784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2666698244648766</v>
+        <v>0.2686860772257458</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3243955100232379</v>
+        <v>0.3280456101726907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>501</v>
@@ -4087,19 +4087,19 @@
         <v>530474</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>490206</v>
+        <v>488746</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>569062</v>
+        <v>574239</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2677341892490794</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2474106021398688</v>
+        <v>0.2466737743199027</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2872096466542781</v>
+        <v>0.2898226041174391</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>717623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>692697</v>
+        <v>690297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>742356</v>
+        <v>743026</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7654101991166358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7388236642601388</v>
+        <v>0.736264013346991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7917900372675046</v>
+        <v>0.7925046475919525</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>679</v>
@@ -4137,19 +4137,19 @@
         <v>733249</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>705182</v>
+        <v>701372</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>765435</v>
+        <v>763330</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7024941020265216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6756044899767621</v>
+        <v>0.6719543898273099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7333301755351234</v>
+        <v>0.7313139227742543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1390</v>
@@ -4158,19 +4158,19 @@
         <v>1450872</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1412284</v>
+        <v>1407107</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1491140</v>
+        <v>1492600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7322658107509206</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7127903533457219</v>
+        <v>0.7101773958825606</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7525893978601309</v>
+        <v>0.7533262256800972</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>855602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>809436</v>
+        <v>803522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>909350</v>
+        <v>904501</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2520664466299309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2384655859494653</v>
+        <v>0.236723305624933</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2679011602449023</v>
+        <v>0.2664725960553062</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1077</v>
@@ -4283,19 +4283,19 @@
         <v>1164320</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1110380</v>
+        <v>1104577</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1221491</v>
+        <v>1218497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3284823737676889</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.313264744980591</v>
+        <v>0.3116276184714611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3446118315934932</v>
+        <v>0.3437669903037969</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1893</v>
@@ -4304,19 +4304,19 @@
         <v>2019921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1942865</v>
+        <v>1941901</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2096801</v>
+        <v>2099937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2911014178871146</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2799963819991649</v>
+        <v>0.2798574871971083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3021809935252113</v>
+        <v>0.302632957145449</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2538748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2485000</v>
+        <v>2489849</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2584914</v>
+        <v>2590828</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7479335533700691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7320988397550976</v>
+        <v>0.7335274039446937</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7615344140505342</v>
+        <v>0.7632766943750671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2261</v>
@@ -4354,19 +4354,19 @@
         <v>2380222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2323051</v>
+        <v>2326045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2434162</v>
+        <v>2439965</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6715176262323111</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6553881684065064</v>
+        <v>0.6562330096962029</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6867352550194089</v>
+        <v>0.6883723815285387</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4676</v>
@@ -4375,19 +4375,19 @@
         <v>4918971</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4842091</v>
+        <v>4838955</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4996027</v>
+        <v>4996991</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7088985821128855</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6978190064747887</v>
+        <v>0.6973670428545508</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.720003618000835</v>
+        <v>0.7201425128028914</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>120760</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>101600</v>
+        <v>102318</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>141578</v>
+        <v>142501</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.174834190154473</v>
+        <v>0.1748341901544731</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1470953638169404</v>
+        <v>0.1481351862977921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2049750878655368</v>
+        <v>0.2063108798733033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>308</v>
@@ -4740,19 +4740,19 @@
         <v>179816</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>163102</v>
+        <v>161227</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>200685</v>
+        <v>198738</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2456354216881949</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2228034917006189</v>
+        <v>0.2202419869741336</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2741441125259452</v>
+        <v>0.2714840790347338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>447</v>
@@ -4761,19 +4761,19 @@
         <v>300575</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>275982</v>
+        <v>272948</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>330285</v>
+        <v>331061</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2112632427789294</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1939777163544996</v>
+        <v>0.1918448695970696</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2321452855336225</v>
+        <v>0.2326904784413272</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>569950</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>549132</v>
+        <v>548209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>589110</v>
+        <v>588392</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8251658098455269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7950249121344632</v>
+        <v>0.7936891201266967</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8529046361830596</v>
+        <v>0.8518648137022077</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>930</v>
@@ -4811,19 +4811,19 @@
         <v>552227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>531358</v>
+        <v>533305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>568941</v>
+        <v>570816</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7543645783118051</v>
+        <v>0.7543645783118049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7258558874740548</v>
+        <v>0.7285159209652663</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.777196508299381</v>
+        <v>0.7797580130258663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1521</v>
@@ -4832,19 +4832,19 @@
         <v>1122177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1092467</v>
+        <v>1091691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1146770</v>
+        <v>1149804</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7887367572210706</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7678547144663774</v>
+        <v>0.7673095215586728</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8060222836455005</v>
+        <v>0.8081551304029303</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>204293</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176256</v>
+        <v>178817</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>230990</v>
+        <v>234998</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1947654409728757</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1680363155268466</v>
+        <v>0.1704776021374193</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2202171785046638</v>
+        <v>0.2240390188808221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>350</v>
@@ -4957,19 +4957,19 @@
         <v>245527</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>221172</v>
+        <v>222317</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269667</v>
+        <v>271941</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2294847776003061</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2067212096961276</v>
+        <v>0.207790909472335</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2520470188954841</v>
+        <v>0.2541726523766517</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>544</v>
@@ -4978,19 +4978,19 @@
         <v>449820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>412876</v>
+        <v>412334</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>490153</v>
+        <v>489105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.212297068670432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.194861090555847</v>
+        <v>0.194605278864383</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2313324871756718</v>
+        <v>0.2308379866226156</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>844624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>817927</v>
+        <v>813919</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>872661</v>
+        <v>870100</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8052345590271244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7797828214953362</v>
+        <v>0.7759609811191779</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8319636844731533</v>
+        <v>0.8295223978625806</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1164</v>
@@ -5028,19 +5028,19 @@
         <v>824379</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>800239</v>
+        <v>797965</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>848734</v>
+        <v>847589</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7705152223996939</v>
+        <v>0.7705152223996941</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.747952981104516</v>
+        <v>0.7458273476233482</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7932787903038726</v>
+        <v>0.792209090527665</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1934</v>
@@ -5049,19 +5049,19 @@
         <v>1669003</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1628670</v>
+        <v>1629718</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1705947</v>
+        <v>1706489</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.787702931329568</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7686675128243284</v>
+        <v>0.7691620133773844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.805138909444153</v>
+        <v>0.8053947211356168</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>146333</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125005</v>
+        <v>123825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172326</v>
+        <v>172884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1824215320106992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1558337796366981</v>
+        <v>0.1543626815492225</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2148257324881847</v>
+        <v>0.2155210945035925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>241</v>
@@ -5174,19 +5174,19 @@
         <v>179754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158374</v>
+        <v>157915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>200284</v>
+        <v>200505</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.221301252018954</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1949799757998223</v>
+        <v>0.1944145807965279</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2465761243148386</v>
+        <v>0.2468487011515779</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>380</v>
@@ -5195,19 +5195,19 @@
         <v>326086</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>297519</v>
+        <v>293473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>360397</v>
+        <v>359417</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2019829056737881</v>
+        <v>0.2019829056737882</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1842878378574722</v>
+        <v>0.1817814186103913</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2232355669982816</v>
+        <v>0.2226283306420074</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>655834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629841</v>
+        <v>629283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>677162</v>
+        <v>678342</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8175784679893009</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7851742675118152</v>
+        <v>0.7844789054964074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8441662203633019</v>
+        <v>0.8456373184507778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>806</v>
@@ -5245,19 +5245,19 @@
         <v>632505</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>611975</v>
+        <v>611754</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>653885</v>
+        <v>654344</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7786987479810459</v>
+        <v>0.778698747981046</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7534238756851616</v>
+        <v>0.753151298848422</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8050200242001779</v>
+        <v>0.805585419203472</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1342</v>
@@ -5266,19 +5266,19 @@
         <v>1288340</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1254029</v>
+        <v>1255009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1316907</v>
+        <v>1320953</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7980170943262116</v>
+        <v>0.7980170943262118</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7767644330017184</v>
+        <v>0.7773716693579928</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.815712162142528</v>
+        <v>0.8182185813896089</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>219239</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>192122</v>
+        <v>193960</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>247162</v>
+        <v>248349</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2215895055586756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1941814931821236</v>
+        <v>0.1960387440170273</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2498110123512198</v>
+        <v>0.2510110258497134</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>452</v>
@@ -5391,19 +5391,19 @@
         <v>321523</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>295110</v>
+        <v>294641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>347276</v>
+        <v>345360</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2879951440001837</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2643365340493248</v>
+        <v>0.2639162716740878</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3110622951844093</v>
+        <v>0.3093463701052244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>692</v>
@@ -5412,19 +5412,19 @@
         <v>540763</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>503529</v>
+        <v>503784</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>577193</v>
+        <v>578162</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2567951602365658</v>
+        <v>0.2567951602365659</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2391134993705334</v>
+        <v>0.2392349629793143</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2740949138034992</v>
+        <v>0.2745551600442712</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>770155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>742232</v>
+        <v>741045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>797272</v>
+        <v>795434</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7784104944413244</v>
+        <v>0.7784104944413245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7501889876487801</v>
+        <v>0.7489889741502859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8058185068178761</v>
+        <v>0.8039612559829726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1106</v>
@@ -5462,19 +5462,19 @@
         <v>794896</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>769143</v>
+        <v>771059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821309</v>
+        <v>821778</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7120048559998163</v>
+        <v>0.7120048559998164</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6889377048155908</v>
+        <v>0.6906536298947757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7356634659506754</v>
+        <v>0.7360837283259121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1871</v>
@@ -5483,19 +5483,19 @@
         <v>1565051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1528621</v>
+        <v>1527652</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1602285</v>
+        <v>1602030</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7432048397634342</v>
+        <v>0.7432048397634343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7259050861965007</v>
+        <v>0.7254448399557288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7608865006294666</v>
+        <v>0.7607650370206857</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>690624</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>640757</v>
+        <v>645500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>739521</v>
+        <v>747731</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1955784779193475</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1814564610639708</v>
+        <v>0.1827995328503909</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2094255985807232</v>
+        <v>0.211750600881779</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1351</v>
@@ -5608,19 +5608,19 @@
         <v>926620</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>883443</v>
+        <v>881250</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>973320</v>
+        <v>977943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2483818544668358</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2368081250021007</v>
+        <v>0.2362203684372849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2609000281379457</v>
+        <v>0.2621391441648098</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2063</v>
@@ -5629,19 +5629,19 @@
         <v>1617244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1549871</v>
+        <v>1550938</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1681581</v>
+        <v>1691136</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2227052603626824</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2134275925074683</v>
+        <v>0.2135745055365964</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2315648510105043</v>
+        <v>0.2328806131976555</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2840564</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2791667</v>
+        <v>2783457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2890431</v>
+        <v>2885688</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8044215220806527</v>
+        <v>0.8044215220806525</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7905744014192768</v>
+        <v>0.788249399118221</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8185435389360294</v>
+        <v>0.8172004671496091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4006</v>
@@ -5679,19 +5679,19 @@
         <v>2804006</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2757306</v>
+        <v>2752683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2847183</v>
+        <v>2849376</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7516181455331641</v>
+        <v>0.7516181455331642</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7390999718620542</v>
+        <v>0.7378608558351901</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7631918749978994</v>
+        <v>0.7637796315627151</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6668</v>
@@ -5700,19 +5700,19 @@
         <v>5644570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5580233</v>
+        <v>5570678</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5711943</v>
+        <v>5710876</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7772947396373175</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7684351489894958</v>
+        <v>0.7671193868023444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7865724074925319</v>
+        <v>0.7864254944634035</v>
       </c>
     </row>
     <row r="18">
